--- a/Dress-Sizing-web-App Original/v2 Exquisite Sizing/Working/gown_sizes.xlsx
+++ b/Dress-Sizing-web-App Original/v2 Exquisite Sizing/Working/gown_sizes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Python Projects\Exquisite Sizing\Python Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Coding Folders\GIT - Personal-HTML\Personal-HTML\Dress-Sizing-web-App Original\v2 Exquisite Sizing\Working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C3AAF6-D348-4FC7-B49D-C3188EDD7889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78915958-F168-4868-9712-F750D92F25A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="6900" windowWidth="14610" windowHeight="15585" xr2:uid="{CDC96D4F-FE0E-4936-AAC7-ECF01DA6868A}"/>
+    <workbookView xWindow="-16320" yWindow="-5925" windowWidth="16440" windowHeight="28320" xr2:uid="{CDC96D4F-FE0E-4936-AAC7-ECF01DA6868A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -169,15 +169,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -494,11 +495,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B79EC8-A107-4AD7-AF76-8D8D365D43C8}">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66:F72"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +509,7 @@
     <col min="6" max="6" width="13.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -526,1274 +527,1354 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>28.3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>20.5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>31.5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>29.9</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <v>22</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>33.1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>31.5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <v>23.6</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>34.6</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>31.5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <v>23.5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>34</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>32</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6">
         <v>23.5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>35.5</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>32.5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>24.5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>35</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>33</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <v>24.5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>36.5</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>33</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6">
         <v>24.5</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>36</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>33.1</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <v>25.2</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>36.200000000000003</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>33.5</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>25.5</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>36</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>34</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>25.5</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>37.5</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>34</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>25.5</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>37</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="10">
+      <c r="D13" s="7"/>
+      <c r="E13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>34.5</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>26.5</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>37</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>34.6</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>26.8</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>37.799999999999997</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>35</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>26.5</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>38.5</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>35</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>26.5</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>38</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="10">
+      <c r="D17" s="7"/>
+      <c r="E17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>36</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>27.5</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>39</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="10">
+      <c r="D18" s="7"/>
+      <c r="E18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>36</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>28</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>38.5</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>36.200000000000003</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>28.3</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>39.4</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>36.5</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>28</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>40</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>37.5</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>29.5</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>40</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9" t="s">
+      <c r="D22" s="7"/>
+      <c r="E22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>37.799999999999997</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>29.9</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>40.9</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
         <v>38</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>30</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>41.5</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="7"/>
+      <c r="E24" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
         <v>38</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>29.5</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>41</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="10">
+      <c r="D25" s="7"/>
+      <c r="E25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
         <v>39</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>30.5</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>42</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="10">
+      <c r="D26" s="7"/>
+      <c r="E26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
         <v>39</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>31</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>41.5</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9" t="s">
+      <c r="D27" s="7"/>
+      <c r="E27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
         <v>39.4</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>31.5</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>42.5</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9" t="s">
+      <c r="D28" s="7"/>
+      <c r="E28" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="F28" s="9">
+        <v>14</v>
+      </c>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
         <v>39.5</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <v>31.5</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>43</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9" t="s">
+      <c r="D29" s="7"/>
+      <c r="E29" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
         <v>40.5</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <v>32</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>43.5</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="10">
+      <c r="D30" s="7"/>
+      <c r="E30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
         <v>40.9</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <v>33.1</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>44.1</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9" t="s">
+      <c r="D31" s="7"/>
+      <c r="E31" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
         <v>41</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <v>33</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>44.5</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="9" t="s">
+      <c r="D32" s="7"/>
+      <c r="E32" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F32" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="F32" s="9">
+        <v>14</v>
+      </c>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
         <v>41</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <v>33</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>43.5</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9" t="s">
+      <c r="D33" s="7"/>
+      <c r="E33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+      <c r="F33" s="9">
+        <v>14</v>
+      </c>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
         <v>42</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="6">
         <v>33.5</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>45</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="10">
+      <c r="D34" s="7"/>
+      <c r="E34" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
         <v>42.5</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="6">
         <v>35.5</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <v>46</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9" t="s">
+      <c r="D35" s="7"/>
+      <c r="E35" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
         <v>42.5</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="6">
         <v>34.6</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <v>45.7</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="9" t="s">
+      <c r="D36" s="7"/>
+      <c r="E36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="9">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
         <v>43</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="6">
         <v>35</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>45.5</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9" t="s">
+      <c r="D37" s="7"/>
+      <c r="E37" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
         <v>44</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="6">
         <v>36</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <v>48</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="9" t="s">
+      <c r="D38" s="7"/>
+      <c r="E38" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
         <v>44.1</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="6">
         <v>36.200000000000003</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="6">
         <v>47.2</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="9" t="s">
+      <c r="D39" s="7"/>
+      <c r="E39" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
         <v>44.5</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="6">
         <v>36.5</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="6">
         <v>47.5</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="9" t="s">
+      <c r="D40" s="7"/>
+      <c r="E40" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="9">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
         <v>45</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="6">
         <v>37.5</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="6">
         <v>48.5</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
+      <c r="D41" s="7"/>
+      <c r="E41" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="9">
+        <v>14</v>
+      </c>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
         <v>45</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="6">
         <v>37</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="6">
         <v>47.5</v>
       </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="9" t="s">
+      <c r="D42" s="7"/>
+      <c r="E42" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="9">
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
         <v>45.7</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="6">
         <v>37.799999999999997</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <v>48.8</v>
       </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="9" t="s">
+      <c r="D43" s="7"/>
+      <c r="E43" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="9">
         <v>22</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
         <v>46</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="6">
         <v>38</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="6">
         <v>50</v>
       </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="9" t="s">
+      <c r="D44" s="7"/>
+      <c r="E44" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
         <v>46.5</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="6">
         <v>38.5</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="6">
         <v>49.5</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="9" t="s">
+      <c r="D45" s="7"/>
+      <c r="E45" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
         <v>47</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="6">
         <v>39.5</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="6">
         <v>50.5</v>
       </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="10">
+      <c r="D46" s="7"/>
+      <c r="E46" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
         <v>47.2</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="6">
         <v>39.4</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="6">
         <v>50.4</v>
       </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="9" t="s">
+      <c r="D47" s="7"/>
+      <c r="E47" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="9">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
         <v>48</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="6">
         <v>40</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="6">
         <v>52</v>
       </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="9" t="s">
+      <c r="D48" s="7"/>
+      <c r="E48" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="6">
         <v>40</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <v>50.5</v>
       </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="9" t="s">
+      <c r="D49" s="7"/>
+      <c r="E49" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
         <v>48.5</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="6">
         <v>41</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="6">
         <v>51.5</v>
       </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="9" t="s">
+      <c r="D50" s="7"/>
+      <c r="E50" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="9">
         <v>22</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
         <v>48.8</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="6">
         <v>40.9</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="6">
         <v>52</v>
       </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="9" t="s">
+      <c r="D51" s="7"/>
+      <c r="E51" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="9">
         <v>26</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
+      <c r="G51" s="10"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
         <v>49</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="6">
         <v>41.5</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="6">
         <v>52.5</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="10">
+      <c r="D52" s="7"/>
+      <c r="E52" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="9">
         <v>18</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
         <v>50</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="6">
         <v>42.5</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="6">
         <v>54.5</v>
       </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="9" t="s">
+      <c r="D53" s="7"/>
+      <c r="E53" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
         <v>50.4</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="6">
         <v>42.5</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="6">
         <v>53.5</v>
       </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="9" t="s">
+      <c r="D54" s="7"/>
+      <c r="E54" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F54" s="9">
         <v>28</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
         <v>50.5</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="6">
         <v>44</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="6">
         <v>53.5</v>
       </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="9" t="s">
+      <c r="D55" s="7"/>
+      <c r="E55" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="9">
         <v>24</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
+      <c r="G55" s="10"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
         <v>51</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="6">
         <v>44</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="6">
         <v>55</v>
       </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="10">
+      <c r="D56" s="7"/>
+      <c r="E56" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
+      <c r="G56" s="10"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
         <v>51</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="6">
         <v>43</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="6">
         <v>53.5</v>
       </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="9" t="s">
+      <c r="D57" s="7"/>
+      <c r="E57" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F57" s="9">
         <v>22</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
+      <c r="G57" s="10"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
         <v>52</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="6">
         <v>45</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="6">
         <v>57</v>
       </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="9" t="s">
+      <c r="D58" s="7"/>
+      <c r="E58" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="F58" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
+      <c r="G58" s="10"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
         <v>53</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="6">
         <v>46.5</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="6">
         <v>57.5</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="10">
+      <c r="D59" s="7"/>
+      <c r="E59" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="9">
         <v>22</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
+      <c r="G59" s="10"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
         <v>53.5</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="6">
         <v>47</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="6">
         <v>56.5</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="9" t="s">
+      <c r="D60" s="7"/>
+      <c r="E60" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F60" s="9">
         <v>26</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
+      <c r="G60" s="10"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
         <v>54</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="6">
         <v>47.5</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="6">
         <v>59</v>
       </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="9" t="s">
+      <c r="D61" s="7"/>
+      <c r="E61" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="F61" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="7">
+      <c r="G61" s="10"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
         <v>54</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="6">
         <v>46</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="6">
         <v>56.5</v>
       </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="9" t="s">
+      <c r="D62" s="7"/>
+      <c r="E62" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F62" s="9">
         <v>24</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="7">
+      <c r="G62" s="10"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
         <v>55</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="6">
         <v>49</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="6">
         <v>60</v>
       </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="10">
+      <c r="D63" s="7"/>
+      <c r="E63" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="9">
         <v>24</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="7">
+      <c r="G63" s="10"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
         <v>56</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="6">
         <v>50</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="6">
         <v>61</v>
       </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="9" t="s">
+      <c r="D64" s="7"/>
+      <c r="E64" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F64" s="10" t="s">
+      <c r="F64" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="7">
+      <c r="G64" s="10"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
         <v>56.5</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="6">
         <v>50</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="6">
         <v>59.5</v>
       </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="9" t="s">
+      <c r="D65" s="7"/>
+      <c r="E65" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F65" s="9">
         <v>28</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="7">
+      <c r="G65" s="10"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
         <v>57</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="6">
         <v>51.5</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="6">
         <v>62.5</v>
       </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="10">
+      <c r="D66" s="7"/>
+      <c r="E66" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="9">
         <v>26</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="7">
+      <c r="G66" s="10"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
         <v>57</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="6">
         <v>49</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="6">
         <v>59.5</v>
       </c>
-      <c r="D67" s="8"/>
-      <c r="E67" s="9" t="s">
+      <c r="D67" s="7"/>
+      <c r="E67" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F67" s="9">
         <v>26</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="7">
+      <c r="G67" s="10"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
         <v>58</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="6">
         <v>52.5</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="6">
         <v>64</v>
       </c>
-      <c r="D68" s="8"/>
-      <c r="E68" s="9" t="s">
+      <c r="D68" s="7"/>
+      <c r="E68" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F68" s="10" t="s">
+      <c r="F68" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="7">
+      <c r="G68" s="10"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
         <v>60</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="6">
         <v>55</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="6">
         <v>66</v>
       </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="9" t="s">
+      <c r="D69" s="7"/>
+      <c r="E69" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F69" s="10" t="s">
+      <c r="F69" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="7">
+      <c r="G69" s="10"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
         <v>60</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="6">
         <v>53.5</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="6">
         <v>65.5</v>
       </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" s="10">
+      <c r="D70" s="7"/>
+      <c r="E70" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="9">
         <v>28</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="7">
+      <c r="G70" s="10"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
         <v>60</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="6">
         <v>52</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="6">
         <v>62.6</v>
       </c>
-      <c r="D71" s="8"/>
-      <c r="E71" s="9" t="s">
+      <c r="D71" s="7"/>
+      <c r="E71" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F71" s="9">
         <v>28</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="7">
+      <c r="G71" s="10"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
         <v>62</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="6">
         <v>55.5</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="6">
         <v>67.5</v>
       </c>
-      <c r="D72" s="8"/>
-      <c r="E72" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="10">
+      <c r="D72" s="7"/>
+      <c r="E72" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="9">
         <v>30</v>
       </c>
+      <c r="G72" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I72" xr:uid="{74B79EC8-A107-4AD7-AF76-8D8D365D43C8}">
